--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523818</v>
+        <v>0.8909260930523851</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033987</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314907</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882992</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,40 +778,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248803</v>
       </c>
       <c r="D3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248803</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950652</v>
       </c>
       <c r="G3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950652</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020822</v>
+        <v>0.9526279648020823</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0.9526279648025198</v>
       </c>
       <c r="Q3">
-        <v>-4.075572016387165E-12</v>
+        <v>-3.504180769098238E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999904</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292915</v>
+        <v>0.9526279648292914</v>
       </c>
       <c r="Q4">
-        <v>1.415035895159276E-09</v>
+        <v>1.415622158187488E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985759</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382153</v>
+        <v>0.952627964838215</v>
       </c>
       <c r="Q5">
-        <v>1.888077305070501E-09</v>
+        <v>1.888656937477562E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981029</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663873</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382152</v>
+        <v>0.952627964838215</v>
       </c>
       <c r="Q6">
-        <v>1.888076790653456E-09</v>
+        <v>1.888660415216949E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981029</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1128,10 @@
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604973</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249691</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,52 +1145,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753566</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753566</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391897</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391897</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765314</v>
+        <v>0.7109795688765321</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381402</v>
+        <v>0.9171656569381416</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293683</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928744</v>
       </c>
       <c r="S3">
         <v>158.1868465769574</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561354</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760384</v>
+        <v>0.7109795688760392</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531276</v>
+        <v>0.9171656569531287</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336747</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904448</v>
       </c>
       <c r="S4">
         <v>158.1868465770595</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758742</v>
+        <v>0.7109795688758747</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581245</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351101</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758742</v>
+        <v>0.7109795688758747</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581246</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351101</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1495,10 +1495,10 @@
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604973</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249691</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,52 +1512,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753566</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753566</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391897</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391897</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765314</v>
+        <v>0.7109795688765321</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381402</v>
+        <v>0.9171656569381416</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293683</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928744</v>
       </c>
       <c r="S3">
         <v>158.1868465769574</v>
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561354</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760384</v>
+        <v>0.7109795688760392</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531276</v>
+        <v>0.9171656569531287</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336747</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904448</v>
       </c>
       <c r="S4">
         <v>158.1868465770595</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758742</v>
+        <v>0.7109795688758747</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581245</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351101</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758742</v>
+        <v>0.7109795688758747</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581234</v>
+        <v>0.9171656569581246</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351101</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952275</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739506</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888196</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610136</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897122</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043592</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661922</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="D3">
-        <v>4.133684588661922</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="G3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841222</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.072718605639188E-11</v>
+        <v>3.118996479629456E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597845</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085198</v>
+        <v>0.8660254038085191</v>
       </c>
       <c r="Q4">
-        <v>2.755429897702748E-09</v>
+        <v>2.755893245999822E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972355</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166315</v>
       </c>
       <c r="Q5">
-        <v>3.66365910218233E-09</v>
+        <v>3.664134666363084E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963273</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166314</v>
       </c>
       <c r="Q6">
-        <v>3.663656382390752E-09</v>
+        <v>3.664135048770031E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963273</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952275</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739506</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888196</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610136</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897122</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043592</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661922</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="D3">
-        <v>4.133684588661922</v>
+        <v>4.133684588661866</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="G3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017872</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841222</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.072718605639188E-11</v>
+        <v>3.118996479629456E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597845</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085198</v>
+        <v>0.8660254038085191</v>
       </c>
       <c r="Q4">
-        <v>2.755429897702748E-09</v>
+        <v>2.755893245999822E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972355</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166315</v>
       </c>
       <c r="Q5">
-        <v>3.66365910218233E-09</v>
+        <v>3.664134666363084E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963273</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166314</v>
       </c>
       <c r="Q6">
-        <v>3.663656382390752E-09</v>
+        <v>3.664135048770031E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963273</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.43727595412388</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335015</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.79573357821067</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.79573357821067</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545561</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545561</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
         <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.6348876951823907</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776825</v>
+        <v>0.8307352055776837</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.57011779536522</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758094</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946468</v>
+        <v>0.6348876951946483</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979559</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629442</v>
+        <v>17.57011779629449</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722254</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2767,16 +2767,16 @@
         <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987339</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047135</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660417</v>
+        <v>17.57011779660425</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -2826,16 +2826,16 @@
         <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.634887695198734</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660425</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.43727595412388</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335015</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.79573357821067</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.79573357821067</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545561</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545561</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
         <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.6348876951823907</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776825</v>
+        <v>0.8307352055776837</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536515</v>
+        <v>17.57011779536522</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758094</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946468</v>
+        <v>0.6348876951946483</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979559</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629442</v>
+        <v>17.57011779629449</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722254</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3134,16 +3134,16 @@
         <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987339</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047135</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660417</v>
+        <v>17.57011779660425</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -3193,16 +3193,16 @@
         <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.634887695198734</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047125</v>
+        <v>0.8307352056047136</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660417</v>
+        <v>17.57011779660425</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710307</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088156768331975</v>
+        <v>1.100884222285792</v>
       </c>
       <c r="O2">
-        <v>1.100000023842368</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.086751014948907</v>
+        <v>1.101001582535357</v>
       </c>
       <c r="Q2">
-        <v>30.4455314077055</v>
+        <v>29.96637800107409</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6808006413539</v>
+        <v>150.0230310351328</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6628240872351331</v>
+        <v>0.0497682031830276</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.653633303811442</v>
+        <v>0.5746737100960996</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036934278</v>
+        <v>5.770443987233022</v>
       </c>
       <c r="I3">
-        <v>52.87164768924206</v>
+        <v>-770.2453632030765</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236471</v>
+        <v>0.1077319052320891</v>
       </c>
       <c r="K3">
-        <v>2.308438694643191</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054244019</v>
       </c>
       <c r="M3">
-        <v>2.308438694642867</v>
+        <v>2.308438694641929</v>
       </c>
       <c r="N3">
-        <v>1.036170808042147</v>
+        <v>1.104820779831386</v>
       </c>
       <c r="O3">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>1.032717588269755</v>
+        <v>1.105132352788295</v>
       </c>
       <c r="Q3">
-        <v>32.27168657246925</v>
+        <v>29.8370518290859</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>148.0329896420457</v>
+        <v>150.1347967789018</v>
       </c>
       <c r="T3">
-        <v>0.662824087235133</v>
+        <v>0.0497682031830276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03617080804697</v>
+        <v>1.104820779831026</v>
       </c>
       <c r="O4">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>1.032717588270776</v>
+        <v>1.1051323527882</v>
       </c>
       <c r="Q4">
-        <v>32.27168657253528</v>
+        <v>29.83705182908069</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>148.0329896423155</v>
+        <v>150.1347967788831</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.036170808048578</v>
+        <v>1.104820779830906</v>
       </c>
       <c r="O5">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.032717588271116</v>
+        <v>1.105132352788169</v>
       </c>
       <c r="Q5">
-        <v>32.27168657255729</v>
+        <v>29.83705182907896</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>148.0329896424055</v>
+        <v>150.1347967788768</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.036170808048577</v>
+        <v>1.104820779830906</v>
       </c>
       <c r="O6">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.032717588271116</v>
+        <v>1.105132352788169</v>
       </c>
       <c r="Q6">
-        <v>32.27168657255728</v>
+        <v>29.83705182907895</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>148.0329896424055</v>
+        <v>150.1347967788768</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088156768331975</v>
+        <v>1.100884222285792</v>
       </c>
       <c r="O2">
-        <v>1.100000023842368</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.086751014948907</v>
+        <v>1.101001582535357</v>
       </c>
       <c r="Q2">
-        <v>30.4455314077055</v>
+        <v>29.96637800107409</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6808006413539</v>
+        <v>150.0230310351328</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6628240872351331</v>
+        <v>0.0497682031830276</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.653633303811442</v>
+        <v>0.5746737100960996</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036934278</v>
+        <v>5.770443987233022</v>
       </c>
       <c r="I3">
-        <v>52.87164768924206</v>
+        <v>-770.2453632030765</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236471</v>
+        <v>0.1077319052320891</v>
       </c>
       <c r="K3">
-        <v>2.308438694643191</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054244019</v>
       </c>
       <c r="M3">
-        <v>2.308438694642867</v>
+        <v>2.308438694641929</v>
       </c>
       <c r="N3">
-        <v>1.036170808042147</v>
+        <v>1.104820779831386</v>
       </c>
       <c r="O3">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>1.032717588269755</v>
+        <v>1.105132352788295</v>
       </c>
       <c r="Q3">
-        <v>32.27168657246925</v>
+        <v>29.8370518290859</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>148.0329896420457</v>
+        <v>150.1347967789018</v>
       </c>
       <c r="T3">
-        <v>0.662824087235133</v>
+        <v>0.0497682031830276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03617080804697</v>
+        <v>1.104820779831026</v>
       </c>
       <c r="O4">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>1.032717588270776</v>
+        <v>1.1051323527882</v>
       </c>
       <c r="Q4">
-        <v>32.27168657253528</v>
+        <v>29.83705182908069</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>148.0329896423155</v>
+        <v>150.1347967788831</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.036170808048578</v>
+        <v>1.104820779830906</v>
       </c>
       <c r="O5">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.032717588271116</v>
+        <v>1.105132352788169</v>
       </c>
       <c r="Q5">
-        <v>32.27168657255729</v>
+        <v>29.83705182907896</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>148.0329896424055</v>
+        <v>150.1347967788768</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.036170808048577</v>
+        <v>1.104820779830906</v>
       </c>
       <c r="O6">
-        <v>1.100000023842439</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.032717588271116</v>
+        <v>1.105132352788169</v>
       </c>
       <c r="Q6">
-        <v>32.27168657255728</v>
+        <v>29.83705182907895</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>148.0329896424055</v>
+        <v>150.1347967788768</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089657622593411</v>
+        <v>1.100888138761466</v>
       </c>
       <c r="O2">
-        <v>1.100000023842338</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.090883728196754</v>
+        <v>1.101030099790368</v>
       </c>
       <c r="Q2">
-        <v>30.24048024356733</v>
+        <v>29.96478117863447</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6492345983081</v>
+        <v>150.0224077418929</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5144211521721499</v>
+        <v>0.05074445726518191</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.940023813668565</v>
+        <v>0.5859465212386847</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036934278</v>
+        <v>5.770443987233022</v>
       </c>
       <c r="I3">
-        <v>52.87164768924206</v>
+        <v>-770.2453632030765</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236471</v>
+        <v>0.1077319052320891</v>
       </c>
       <c r="K3">
-        <v>2.308438694643191</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054244019</v>
       </c>
       <c r="M3">
-        <v>2.308438694642867</v>
+        <v>2.308438694641929</v>
       </c>
       <c r="N3">
-        <v>1.044645993620451</v>
+        <v>1.104850232956481</v>
       </c>
       <c r="O3">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.054608625662591</v>
+        <v>1.10528514783389</v>
       </c>
       <c r="Q3">
-        <v>31.15761007791374</v>
+        <v>29.82876684879136</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.9584136939147</v>
+        <v>150.1319364418532</v>
       </c>
       <c r="T3">
-        <v>0.5144211521721497</v>
+        <v>0.05074445726518191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.044645993623897</v>
+        <v>1.104850232956112</v>
       </c>
       <c r="O4">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.054608625662601</v>
+        <v>1.105285147833787</v>
       </c>
       <c r="Q4">
-        <v>31.15761007800862</v>
+        <v>29.82876684878641</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.9584136941243</v>
+        <v>150.1319364418343</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.044645993625046</v>
+        <v>1.104850232955989</v>
       </c>
       <c r="O5">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.054608625662604</v>
+        <v>1.105285147833752</v>
       </c>
       <c r="Q5">
-        <v>31.15761007804025</v>
+        <v>29.82876684878477</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.9584136941941</v>
+        <v>150.1319364418279</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.044645993625046</v>
+        <v>1.104850232955989</v>
       </c>
       <c r="O6">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.054608625662604</v>
+        <v>1.105285147833752</v>
       </c>
       <c r="Q6">
-        <v>31.15761007804025</v>
+        <v>29.82876684878476</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.9584136941941</v>
+        <v>150.1319364418279</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089657622593411</v>
+        <v>1.100888138761466</v>
       </c>
       <c r="O2">
-        <v>1.100000023842338</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.090883728196754</v>
+        <v>1.101030099790368</v>
       </c>
       <c r="Q2">
-        <v>30.24048024356733</v>
+        <v>29.96478117863447</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6492345983081</v>
+        <v>150.0224077418929</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5144211521721499</v>
+        <v>0.05074445726518191</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.940023813668565</v>
+        <v>0.5859465212386847</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036934278</v>
+        <v>5.770443987233022</v>
       </c>
       <c r="I3">
-        <v>52.87164768924206</v>
+        <v>-770.2453632030765</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236471</v>
+        <v>0.1077319052320891</v>
       </c>
       <c r="K3">
-        <v>2.308438694643191</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054244019</v>
       </c>
       <c r="M3">
-        <v>2.308438694642867</v>
+        <v>2.308438694641929</v>
       </c>
       <c r="N3">
-        <v>1.044645993620451</v>
+        <v>1.104850232956481</v>
       </c>
       <c r="O3">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.054608625662591</v>
+        <v>1.10528514783389</v>
       </c>
       <c r="Q3">
-        <v>31.15761007791374</v>
+        <v>29.82876684879136</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.9584136939147</v>
+        <v>150.1319364418532</v>
       </c>
       <c r="T3">
-        <v>0.5144211521721497</v>
+        <v>0.05074445726518191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.044645993623897</v>
+        <v>1.104850232956112</v>
       </c>
       <c r="O4">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.054608625662601</v>
+        <v>1.105285147833787</v>
       </c>
       <c r="Q4">
-        <v>31.15761007800862</v>
+        <v>29.82876684878641</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.9584136941243</v>
+        <v>150.1319364418343</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.044645993625046</v>
+        <v>1.104850232955989</v>
       </c>
       <c r="O5">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.054608625662604</v>
+        <v>1.105285147833752</v>
       </c>
       <c r="Q5">
-        <v>31.15761007804025</v>
+        <v>29.82876684878477</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.9584136941941</v>
+        <v>150.1319364418279</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.044645993625046</v>
+        <v>1.104850232955989</v>
       </c>
       <c r="O6">
-        <v>1.100000023842566</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.054608625662604</v>
+        <v>1.105285147833752</v>
       </c>
       <c r="Q6">
-        <v>31.15761007804025</v>
+        <v>29.82876684878476</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.9584136941941</v>
+        <v>150.1319364418279</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9878124932500449</v>
+        <v>1.000908997536786</v>
       </c>
       <c r="O2">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="P2">
-        <v>0.9863741584300054</v>
+        <v>1.001038065526012</v>
       </c>
       <c r="Q2">
-        <v>30.50451272834319</v>
+        <v>29.96142578568913</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6375989717906</v>
+        <v>150.0257614603095</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6001667698956724</v>
+        <v>0.04525395351874312</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.930128923158693</v>
+        <v>0.5225476449188231</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805209465</v>
+        <v>11.07912837608374</v>
       </c>
       <c r="I3">
-        <v>52.88549543493857</v>
+        <v>-770.2296779736619</v>
       </c>
       <c r="J3">
-        <v>0.1153518595184984</v>
+        <v>0.1153518594272485</v>
       </c>
       <c r="K3">
-        <v>2.416397540676075</v>
+        <v>2.416397540671339</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704452</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675679</v>
+        <v>2.416397540675535</v>
       </c>
       <c r="N3">
-        <v>0.9395496491866665</v>
+        <v>1.004564886145389</v>
       </c>
       <c r="O3">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999479</v>
       </c>
       <c r="P3">
-        <v>0.9362379324358999</v>
+        <v>1.004905035886009</v>
       </c>
       <c r="Q3">
-        <v>32.37618031355618</v>
+        <v>29.82732300354199</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.9448907708882</v>
+        <v>150.1388679462728</v>
       </c>
       <c r="T3">
-        <v>0.6001667698956724</v>
+        <v>0.04525395351874312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9395496491935933</v>
+        <v>1.004564886144866</v>
       </c>
       <c r="O4">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P4">
-        <v>0.9362379324393528</v>
+        <v>1.004905035885723</v>
       </c>
       <c r="Q4">
-        <v>32.37618031352484</v>
+        <v>29.82732300354348</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>147.944890771257</v>
+        <v>150.1388679462478</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9395496491959022</v>
+        <v>1.004564886144692</v>
       </c>
       <c r="O5">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P5">
-        <v>0.9362379324405042</v>
+        <v>1.004905035885628</v>
       </c>
       <c r="Q5">
-        <v>32.3761803135144</v>
+        <v>29.82732300354397</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>147.94489077138</v>
+        <v>150.1388679462394</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9395496491959022</v>
+        <v>1.004564886144692</v>
       </c>
       <c r="O6">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999484</v>
       </c>
       <c r="P6">
-        <v>0.9362379324405042</v>
+        <v>1.004905035885628</v>
       </c>
       <c r="Q6">
-        <v>32.37618031351439</v>
+        <v>29.82732300354398</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>147.94489077138</v>
+        <v>150.1388679462395</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9878124932500449</v>
+        <v>1.000908997536786</v>
       </c>
       <c r="O2">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="P2">
-        <v>0.9863741584300054</v>
+        <v>1.001038065526012</v>
       </c>
       <c r="Q2">
-        <v>30.50451272834319</v>
+        <v>29.96142578568913</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6375989717906</v>
+        <v>150.0257614603095</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6001667698956724</v>
+        <v>0.04525395351874312</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.930128923158693</v>
+        <v>0.5225476449188231</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805209465</v>
+        <v>11.07912837608374</v>
       </c>
       <c r="I3">
-        <v>52.88549543493857</v>
+        <v>-770.2296779736619</v>
       </c>
       <c r="J3">
-        <v>0.1153518595184984</v>
+        <v>0.1153518594272485</v>
       </c>
       <c r="K3">
-        <v>2.416397540676075</v>
+        <v>2.416397540671339</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704452</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675679</v>
+        <v>2.416397540675535</v>
       </c>
       <c r="N3">
-        <v>0.9395496491866665</v>
+        <v>1.004564886145389</v>
       </c>
       <c r="O3">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999479</v>
       </c>
       <c r="P3">
-        <v>0.9362379324358999</v>
+        <v>1.004905035886009</v>
       </c>
       <c r="Q3">
-        <v>32.37618031355618</v>
+        <v>29.82732300354199</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.9448907708882</v>
+        <v>150.1388679462728</v>
       </c>
       <c r="T3">
-        <v>0.6001667698956724</v>
+        <v>0.04525395351874312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9395496491935933</v>
+        <v>1.004564886144866</v>
       </c>
       <c r="O4">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P4">
-        <v>0.9362379324393528</v>
+        <v>1.004905035885723</v>
       </c>
       <c r="Q4">
-        <v>32.37618031352484</v>
+        <v>29.82732300354348</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>147.944890771257</v>
+        <v>150.1388679462478</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9395496491959022</v>
+        <v>1.004564886144692</v>
       </c>
       <c r="O5">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P5">
-        <v>0.9362379324405042</v>
+        <v>1.004905035885628</v>
       </c>
       <c r="Q5">
-        <v>32.3761803135144</v>
+        <v>29.82732300354397</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>147.94489077138</v>
+        <v>150.1388679462394</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9395496491959022</v>
+        <v>1.004564886144692</v>
       </c>
       <c r="O6">
-        <v>1.000000000000671</v>
+        <v>0.9999999999999484</v>
       </c>
       <c r="P6">
-        <v>0.9362379324405042</v>
+        <v>1.004905035885628</v>
       </c>
       <c r="Q6">
-        <v>32.37618031351439</v>
+        <v>29.82732300354398</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>147.94489077138</v>
+        <v>150.1388679462395</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9893510540072892</v>
+        <v>1.000912601577575</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998328</v>
+        <v>0.9999999999999959</v>
       </c>
       <c r="P2">
-        <v>0.9906139741253351</v>
+        <v>1.00106735715668</v>
       </c>
       <c r="Q2">
-        <v>30.2728245162021</v>
+        <v>29.95960778651064</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.6022698472761</v>
+        <v>150.0250293337166</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4661883254927641</v>
+        <v>0.0461352447422387</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.383079104326165</v>
+        <v>0.5327239194212157</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805209465</v>
+        <v>11.07912837608374</v>
       </c>
       <c r="I3">
-        <v>52.88549543493857</v>
+        <v>-770.2296779736619</v>
       </c>
       <c r="J3">
-        <v>0.1153518595184984</v>
+        <v>0.1153518594272485</v>
       </c>
       <c r="K3">
-        <v>2.416397540676075</v>
+        <v>2.416397540671339</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704452</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675679</v>
+        <v>2.416397540675535</v>
       </c>
       <c r="N3">
-        <v>0.9475214714187623</v>
+        <v>1.004590647892227</v>
       </c>
       <c r="O3">
-        <v>1.00000000000038</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P3">
-        <v>0.956923886457562</v>
+        <v>1.005049674381476</v>
       </c>
       <c r="Q3">
-        <v>31.21449995361963</v>
+        <v>29.81862608247301</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>147.8685277191759</v>
+        <v>150.1357478850751</v>
       </c>
       <c r="T3">
-        <v>0.4661883254927641</v>
+        <v>0.0461352447422387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9475214714240981</v>
+        <v>1.004590647891695</v>
       </c>
       <c r="O4">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P4">
-        <v>0.9569238864592426</v>
+        <v>1.005049674381175</v>
       </c>
       <c r="Q4">
-        <v>31.21449995366788</v>
+        <v>29.81862608247513</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>147.8685277194829</v>
+        <v>150.13574788505</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9475214714258769</v>
+        <v>1.004590647891518</v>
       </c>
       <c r="O5">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P5">
-        <v>0.9569238864598031</v>
+        <v>1.005049674381075</v>
       </c>
       <c r="Q5">
-        <v>31.21449995368396</v>
+        <v>29.81862608247584</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999746</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>147.8685277195852</v>
+        <v>150.1357478850416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9475214714258769</v>
+        <v>1.004590647891518</v>
       </c>
       <c r="O6">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P6">
-        <v>0.9569238864598031</v>
+        <v>1.005049674381075</v>
       </c>
       <c r="Q6">
-        <v>31.21449995368396</v>
+        <v>29.81862608247584</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.8685277195852</v>
+        <v>150.1357478850416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9893510540072892</v>
+        <v>1.000912601577575</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998328</v>
+        <v>0.9999999999999959</v>
       </c>
       <c r="P2">
-        <v>0.9906139741253351</v>
+        <v>1.00106735715668</v>
       </c>
       <c r="Q2">
-        <v>30.2728245162021</v>
+        <v>29.95960778651064</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.6022698472761</v>
+        <v>150.0250293337166</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4661883254927641</v>
+        <v>0.0461352447422387</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.383079104326165</v>
+        <v>0.5327239194212157</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805209465</v>
+        <v>11.07912837608374</v>
       </c>
       <c r="I3">
-        <v>52.88549543493857</v>
+        <v>-770.2296779736619</v>
       </c>
       <c r="J3">
-        <v>0.1153518595184984</v>
+        <v>0.1153518594272485</v>
       </c>
       <c r="K3">
-        <v>2.416397540676075</v>
+        <v>2.416397540671339</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704452</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675679</v>
+        <v>2.416397540675535</v>
       </c>
       <c r="N3">
-        <v>0.9475214714187623</v>
+        <v>1.004590647892227</v>
       </c>
       <c r="O3">
-        <v>1.00000000000038</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P3">
-        <v>0.956923886457562</v>
+        <v>1.005049674381476</v>
       </c>
       <c r="Q3">
-        <v>31.21449995361963</v>
+        <v>29.81862608247301</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>147.8685277191759</v>
+        <v>150.1357478850751</v>
       </c>
       <c r="T3">
-        <v>0.4661883254927641</v>
+        <v>0.0461352447422387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9475214714240981</v>
+        <v>1.004590647891695</v>
       </c>
       <c r="O4">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P4">
-        <v>0.9569238864592426</v>
+        <v>1.005049674381175</v>
       </c>
       <c r="Q4">
-        <v>31.21449995366788</v>
+        <v>29.81862608247513</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>147.8685277194829</v>
+        <v>150.13574788505</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9475214714258769</v>
+        <v>1.004590647891518</v>
       </c>
       <c r="O5">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P5">
-        <v>0.9569238864598031</v>
+        <v>1.005049674381075</v>
       </c>
       <c r="Q5">
-        <v>31.21449995368396</v>
+        <v>29.81862608247584</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999746</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>147.8685277195852</v>
+        <v>150.1357478850416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9475214714258769</v>
+        <v>1.004590647891518</v>
       </c>
       <c r="O6">
-        <v>1.000000000000381</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="P6">
-        <v>0.9569238864598031</v>
+        <v>1.005049674381075</v>
       </c>
       <c r="Q6">
-        <v>31.21449995368396</v>
+        <v>29.81862608247584</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.8685277195852</v>
+        <v>150.1357478850416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.043265326513246</v>
+        <v>1.046827830351524</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525238</v>
+        <v>0.8909260930523729</v>
       </c>
       <c r="P2">
-        <v>1.052991767727971</v>
+        <v>1.05690999901028</v>
       </c>
       <c r="Q2">
-        <v>25.29763229839764</v>
+        <v>25.18074643682664</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314241</v>
+        <v>-89.28600430314864</v>
       </c>
       <c r="S2">
-        <v>154.9979164749147</v>
+        <v>155.0724647330176</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.755252724976653</v>
+        <v>4.760632030999285</v>
       </c>
       <c r="D3">
-        <v>4.771153425147077</v>
+        <v>4.759289853118815</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.90892881659944</v>
+        <v>54.97104369220385</v>
       </c>
       <c r="G3">
-        <v>55.0925342870734</v>
+        <v>54.95554555699206</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>0.9322749059328838</v>
+        <v>0.9540570443408781</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9322749059338893</v>
+        <v>0.9540570443413648</v>
       </c>
       <c r="Q3">
-        <v>0.05649667791873436</v>
+        <v>-0.00465683246767286</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9435033220764</v>
+        <v>179.9953431675325</v>
       </c>
       <c r="T3">
-        <v>0.3526558461561321</v>
+        <v>0.02477211334406364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9322749059070548</v>
+        <v>0.9540570443140403</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9322749059615566</v>
+        <v>0.9540570443680736</v>
       </c>
       <c r="Q4">
-        <v>0.05649667942886878</v>
+        <v>-0.004656831054775183</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9435033234697</v>
+        <v>179.9953431661117</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.932274905898445</v>
+        <v>0.9540570443050941</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9322749059707789</v>
+        <v>0.9540570443769762</v>
       </c>
       <c r="Q5">
-        <v>0.05649667993225105</v>
+        <v>-0.004656830583821318</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9435033239341</v>
+        <v>179.9953431656381</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9322749058984448</v>
+        <v>0.9540570443050942</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9322749059707789</v>
+        <v>0.9540570443769765</v>
       </c>
       <c r="Q6">
-        <v>0.05649667993224583</v>
+        <v>-0.004656830583811033</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9435033239341</v>
+        <v>179.9953431656381</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.043265326513246</v>
+        <v>1.046827830351524</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525238</v>
+        <v>0.8909260930523729</v>
       </c>
       <c r="P2">
-        <v>1.052991767727971</v>
+        <v>1.05690999901028</v>
       </c>
       <c r="Q2">
-        <v>25.29763229839764</v>
+        <v>25.18074643682664</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314241</v>
+        <v>-89.28600430314864</v>
       </c>
       <c r="S2">
-        <v>154.9979164749147</v>
+        <v>155.0724647330176</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.755252724976653</v>
+        <v>4.760632030999285</v>
       </c>
       <c r="D3">
-        <v>4.771153425147077</v>
+        <v>4.759289853118815</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.90892881659944</v>
+        <v>54.97104369220385</v>
       </c>
       <c r="G3">
-        <v>55.0925342870734</v>
+        <v>54.95554555699206</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>0.9322749059328838</v>
+        <v>0.9540570443408781</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9322749059338893</v>
+        <v>0.9540570443413648</v>
       </c>
       <c r="Q3">
-        <v>0.05649667791873436</v>
+        <v>-0.00465683246767286</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9435033220764</v>
+        <v>179.9953431675325</v>
       </c>
       <c r="T3">
-        <v>0.3526558461561321</v>
+        <v>0.02477211334406364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9322749059070548</v>
+        <v>0.9540570443140403</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9322749059615566</v>
+        <v>0.9540570443680736</v>
       </c>
       <c r="Q4">
-        <v>0.05649667942886878</v>
+        <v>-0.004656831054775183</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9435033234697</v>
+        <v>179.9953431661117</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.932274905898445</v>
+        <v>0.9540570443050941</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9322749059707789</v>
+        <v>0.9540570443769762</v>
       </c>
       <c r="Q5">
-        <v>0.05649667993225105</v>
+        <v>-0.004656830583821318</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9435033239341</v>
+        <v>179.9953431656381</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9322749058984448</v>
+        <v>0.9540570443050942</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9322749059707789</v>
+        <v>0.9540570443769765</v>
       </c>
       <c r="Q6">
-        <v>0.05649667993224583</v>
+        <v>-0.004656830583811033</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9435033239341</v>
+        <v>179.9953431656381</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096970226818979</v>
+        <v>1.100198661332597</v>
       </c>
       <c r="O2">
-        <v>1.05296769003328</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.073857832091953</v>
+        <v>1.077021290322283</v>
       </c>
       <c r="Q2">
-        <v>28.6671664043176</v>
+        <v>28.57797330067697</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238081</v>
+        <v>-91.44286082238196</v>
       </c>
       <c r="S2">
-        <v>150.6469258031449</v>
+        <v>150.7442929789019</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.169623827333659</v>
+        <v>1.241065499540769</v>
       </c>
       <c r="D3">
-        <v>1.312688464691717</v>
+        <v>1.226380956969995</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.50565263123377</v>
+        <v>14.33059000483641</v>
       </c>
       <c r="G3">
-        <v>15.15762076903759</v>
+        <v>14.16102751271315</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>1.097956955950057</v>
+        <v>1.116095787203007</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797277</v>
+        <v>0.8723446855796163</v>
       </c>
       <c r="P3">
-        <v>0.9608059414399966</v>
+        <v>0.9774059028805633</v>
       </c>
       <c r="Q3">
-        <v>22.95039220883866</v>
+        <v>22.62643179309767</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396221</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>153.3588929335853</v>
+        <v>153.92795064387</v>
       </c>
       <c r="T3">
-        <v>0.307343133844541</v>
+        <v>0.02501295379202041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.097956955943217</v>
+        <v>1.116095787195055</v>
       </c>
       <c r="O4">
-        <v>0.8723446855794255</v>
+        <v>0.8723446855793139</v>
       </c>
       <c r="P4">
-        <v>0.9608059414490241</v>
+        <v>0.9774059028893795</v>
       </c>
       <c r="Q4">
-        <v>22.95039220912495</v>
+        <v>22.62643179334563</v>
       </c>
       <c r="R4">
-        <v>-100.0510163384074</v>
+        <v>-100.0510163384145</v>
       </c>
       <c r="S4">
-        <v>153.3588929338189</v>
+        <v>153.9279506440229</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097956955940937</v>
+        <v>1.116095787192404</v>
       </c>
       <c r="O5">
-        <v>0.8723446855793245</v>
+        <v>0.8723446855792131</v>
       </c>
       <c r="P5">
-        <v>0.9608059414520331</v>
+        <v>0.9774059028923182</v>
       </c>
       <c r="Q5">
-        <v>22.95039220922039</v>
+        <v>22.62643179342827</v>
       </c>
       <c r="R5">
-        <v>-100.0510163380024</v>
+        <v>-100.0510163380096</v>
       </c>
       <c r="S5">
-        <v>153.3588929338968</v>
+        <v>153.9279506440739</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.097956955940937</v>
+        <v>1.116095787192404</v>
       </c>
       <c r="O6">
-        <v>0.8723446855793245</v>
+        <v>0.8723446855792131</v>
       </c>
       <c r="P6">
-        <v>0.9608059414520332</v>
+        <v>0.9774059028923182</v>
       </c>
       <c r="Q6">
-        <v>22.95039220922039</v>
+        <v>22.62643179342828</v>
       </c>
       <c r="R6">
-        <v>-100.0510163380024</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>153.3588929338968</v>
+        <v>153.9279506440739</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096970226818979</v>
+        <v>1.100198661332597</v>
       </c>
       <c r="O2">
-        <v>1.05296769003328</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.073857832091953</v>
+        <v>1.077021290322283</v>
       </c>
       <c r="Q2">
-        <v>28.6671664043176</v>
+        <v>28.57797330067697</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238081</v>
+        <v>-91.44286082238196</v>
       </c>
       <c r="S2">
-        <v>150.6469258031449</v>
+        <v>150.7442929789019</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.169623827333659</v>
+        <v>1.241065499540769</v>
       </c>
       <c r="D3">
-        <v>1.312688464691717</v>
+        <v>1.226380956969995</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.50565263123377</v>
+        <v>14.33059000483641</v>
       </c>
       <c r="G3">
-        <v>15.15762076903759</v>
+        <v>14.16102751271315</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>1.097956955950057</v>
+        <v>1.116095787203007</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797277</v>
+        <v>0.8723446855796163</v>
       </c>
       <c r="P3">
-        <v>0.9608059414399966</v>
+        <v>0.9774059028805633</v>
       </c>
       <c r="Q3">
-        <v>22.95039220883866</v>
+        <v>22.62643179309767</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396221</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>153.3588929335853</v>
+        <v>153.92795064387</v>
       </c>
       <c r="T3">
-        <v>0.307343133844541</v>
+        <v>0.02501295379202041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.097956955943217</v>
+        <v>1.116095787195055</v>
       </c>
       <c r="O4">
-        <v>0.8723446855794255</v>
+        <v>0.8723446855793139</v>
       </c>
       <c r="P4">
-        <v>0.9608059414490241</v>
+        <v>0.9774059028893795</v>
       </c>
       <c r="Q4">
-        <v>22.95039220912495</v>
+        <v>22.62643179334563</v>
       </c>
       <c r="R4">
-        <v>-100.0510163384074</v>
+        <v>-100.0510163384145</v>
       </c>
       <c r="S4">
-        <v>153.3588929338189</v>
+        <v>153.9279506440229</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097956955940937</v>
+        <v>1.116095787192404</v>
       </c>
       <c r="O5">
-        <v>0.8723446855793245</v>
+        <v>0.8723446855792131</v>
       </c>
       <c r="P5">
-        <v>0.9608059414520331</v>
+        <v>0.9774059028923182</v>
       </c>
       <c r="Q5">
-        <v>22.95039220922039</v>
+        <v>22.62643179342827</v>
       </c>
       <c r="R5">
-        <v>-100.0510163380024</v>
+        <v>-100.0510163380096</v>
       </c>
       <c r="S5">
-        <v>153.3588929338968</v>
+        <v>153.9279506440739</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.097956955940937</v>
+        <v>1.116095787192404</v>
       </c>
       <c r="O6">
-        <v>0.8723446855793245</v>
+        <v>0.8723446855792131</v>
       </c>
       <c r="P6">
-        <v>0.9608059414520332</v>
+        <v>0.9774059028923182</v>
       </c>
       <c r="Q6">
-        <v>22.95039220922039</v>
+        <v>22.62643179342828</v>
       </c>
       <c r="R6">
-        <v>-100.0510163380024</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>153.3588929338968</v>
+        <v>153.9279506440739</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9442713116929224</v>
+        <v>0.9479637738379112</v>
       </c>
       <c r="O2">
-        <v>0.793667423273949</v>
+        <v>0.7936674232739483</v>
       </c>
       <c r="P2">
-        <v>0.9536975143693889</v>
+        <v>0.9577513498233698</v>
       </c>
       <c r="Q2">
-        <v>24.87428314817912</v>
+        <v>24.74275071572677</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897315</v>
+        <v>-89.2249262389701</v>
       </c>
       <c r="S2">
-        <v>155.4395538971287</v>
+        <v>155.5225835977177</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.129473734408747</v>
+        <v>4.134399591195765</v>
       </c>
       <c r="D3">
-        <v>4.144080755620358</v>
+        <v>4.133000140602388</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.68305544344759</v>
+        <v>47.73993433828707</v>
       </c>
       <c r="G3">
-        <v>47.85172279601923</v>
+        <v>47.723774874751</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.8466811339332706</v>
+        <v>0.8673847824784366</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8466811339332118</v>
+        <v>0.8673847824785849</v>
       </c>
       <c r="Q3">
-        <v>0.05982627485273309</v>
+        <v>-0.005590783578675214</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9401737252163</v>
+        <v>179.9944092163521</v>
       </c>
       <c r="T3">
-        <v>0.3201939262148837</v>
+        <v>0.02252042703985337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8466811339106134</v>
+        <v>0.8673847824539791</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8466811339591437</v>
+        <v>0.8673847825028103</v>
       </c>
       <c r="Q4">
-        <v>0.05982627770006465</v>
+        <v>-0.00559078086231462</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9401737279463</v>
+        <v>179.9944092136279</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8466811339030608</v>
+        <v>0.8673847824458264</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8466811339677877</v>
+        <v>0.8673847825108851</v>
       </c>
       <c r="Q5">
-        <v>0.05982627864917453</v>
+        <v>-0.005590779956860967</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9401737288563</v>
+        <v>179.9944092127198</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8466811339030608</v>
+        <v>0.8673847824458264</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8466811339677874</v>
+        <v>0.8673847825108851</v>
       </c>
       <c r="Q6">
-        <v>0.05982627864916389</v>
+        <v>-0.005590779956855939</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9401737288563</v>
+        <v>179.9944092127198</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9442713116929224</v>
+        <v>0.9479637738379112</v>
       </c>
       <c r="O2">
-        <v>0.793667423273949</v>
+        <v>0.7936674232739483</v>
       </c>
       <c r="P2">
-        <v>0.9536975143693889</v>
+        <v>0.9577513498233698</v>
       </c>
       <c r="Q2">
-        <v>24.87428314817912</v>
+        <v>24.74275071572677</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897315</v>
+        <v>-89.2249262389701</v>
       </c>
       <c r="S2">
-        <v>155.4395538971287</v>
+        <v>155.5225835977177</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.129473734408747</v>
+        <v>4.134399591195765</v>
       </c>
       <c r="D3">
-        <v>4.144080755620358</v>
+        <v>4.133000140602388</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.68305544344759</v>
+        <v>47.73993433828707</v>
       </c>
       <c r="G3">
-        <v>47.85172279601923</v>
+        <v>47.723774874751</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.8466811339332706</v>
+        <v>0.8673847824784366</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8466811339332118</v>
+        <v>0.8673847824785849</v>
       </c>
       <c r="Q3">
-        <v>0.05982627485273309</v>
+        <v>-0.005590783578675214</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9401737252163</v>
+        <v>179.9944092163521</v>
       </c>
       <c r="T3">
-        <v>0.3201939262148837</v>
+        <v>0.02252042703985337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8466811339106134</v>
+        <v>0.8673847824539791</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8466811339591437</v>
+        <v>0.8673847825028103</v>
       </c>
       <c r="Q4">
-        <v>0.05982627770006465</v>
+        <v>-0.00559078086231462</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9401737279463</v>
+        <v>179.9944092136279</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8466811339030608</v>
+        <v>0.8673847824458264</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8466811339677877</v>
+        <v>0.8673847825108851</v>
       </c>
       <c r="Q5">
-        <v>0.05982627864917453</v>
+        <v>-0.005590779956860967</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9401737288563</v>
+        <v>179.9944092127198</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8466811339030608</v>
+        <v>0.8673847824458264</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8466811339677874</v>
+        <v>0.8673847825108851</v>
       </c>
       <c r="Q6">
-        <v>0.05982627864916389</v>
+        <v>-0.005590779956855939</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9401737288563</v>
+        <v>179.9944092127198</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9967400107972818</v>
+        <v>1.000076262766796</v>
       </c>
       <c r="O2">
-        <v>0.9517844802528798</v>
+        <v>0.9517844802529013</v>
       </c>
       <c r="P2">
-        <v>0.9733442975339206</v>
+        <v>0.9766122453933804</v>
       </c>
       <c r="Q2">
-        <v>28.501247688892</v>
+        <v>28.40050539628279</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281181</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>150.7373245094202</v>
+        <v>150.8477803816887</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.052697494504673</v>
+        <v>1.116668411690487</v>
       </c>
       <c r="D3">
-        <v>1.180992453853329</v>
+        <v>1.103304784035549</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.15550363655035</v>
+        <v>12.8941761617011</v>
       </c>
       <c r="G3">
-        <v>13.63692622286272</v>
+        <v>12.73986628122253</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.9972557644224345</v>
+        <v>1.014517831669168</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140649</v>
+        <v>0.7848521014138747</v>
       </c>
       <c r="P3">
-        <v>0.8693348989513533</v>
+        <v>0.8851581963785291</v>
       </c>
       <c r="Q3">
-        <v>22.69114698921614</v>
+        <v>22.35550877964212</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>153.5481119598529</v>
+        <v>154.1407308433551</v>
       </c>
       <c r="T3">
-        <v>0.2790838821509909</v>
+        <v>0.02273780052362551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9972557644157989</v>
+        <v>1.014517831660765</v>
       </c>
       <c r="O4">
-        <v>0.7848521014216412</v>
+        <v>0.784852101421451</v>
       </c>
       <c r="P4">
-        <v>0.8693348989649704</v>
+        <v>0.8851581963912879</v>
       </c>
       <c r="Q4">
-        <v>22.69114698980312</v>
+        <v>22.35550878019658</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769007</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>153.54811195993</v>
+        <v>154.1407308433237</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.997255764413587</v>
+        <v>1.014517831657964</v>
       </c>
       <c r="O5">
-        <v>0.7848521014241665</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P5">
-        <v>0.8693348989695092</v>
+        <v>0.8851581963955411</v>
       </c>
       <c r="Q5">
-        <v>22.69114698999878</v>
+        <v>22.3555087803814</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>153.5481119599557</v>
+        <v>154.1407308433132</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.997255764413587</v>
+        <v>1.014517831657964</v>
       </c>
       <c r="O6">
-        <v>0.7848521014241665</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P6">
-        <v>0.8693348989695092</v>
+        <v>0.8851581963955409</v>
       </c>
       <c r="Q6">
-        <v>22.69114698999878</v>
+        <v>22.3555087803814</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>153.5481119599557</v>
+        <v>154.1407308433132</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9967400107972818</v>
+        <v>1.000076262766796</v>
       </c>
       <c r="O2">
-        <v>0.9517844802528798</v>
+        <v>0.9517844802529013</v>
       </c>
       <c r="P2">
-        <v>0.9733442975339206</v>
+        <v>0.9766122453933804</v>
       </c>
       <c r="Q2">
-        <v>28.501247688892</v>
+        <v>28.40050539628279</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281181</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>150.7373245094202</v>
+        <v>150.8477803816887</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.052697494504673</v>
+        <v>1.116668411690487</v>
       </c>
       <c r="D3">
-        <v>1.180992453853329</v>
+        <v>1.103304784035549</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.15550363655035</v>
+        <v>12.8941761617011</v>
       </c>
       <c r="G3">
-        <v>13.63692622286272</v>
+        <v>12.73986628122253</v>
       </c>
       <c r="H3">
-        <v>0.05222143805216707</v>
+        <v>11.07912837608264</v>
       </c>
       <c r="I3">
-        <v>52.88549543493885</v>
+        <v>-770.229677973662</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814504</v>
+        <v>0.1153518595228619</v>
       </c>
       <c r="K3">
-        <v>2.416397540693276</v>
+        <v>2.416397540774678</v>
       </c>
       <c r="L3">
-        <v>0.115351859471448</v>
+        <v>0.1153518594659486</v>
       </c>
       <c r="M3">
-        <v>2.416397540675145</v>
+        <v>2.416397540685195</v>
       </c>
       <c r="N3">
-        <v>0.9972557644224345</v>
+        <v>1.014517831669168</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140649</v>
+        <v>0.7848521014138747</v>
       </c>
       <c r="P3">
-        <v>0.8693348989513533</v>
+        <v>0.8851581963785291</v>
       </c>
       <c r="Q3">
-        <v>22.69114698921614</v>
+        <v>22.35550877964212</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>153.5481119598529</v>
+        <v>154.1407308433551</v>
       </c>
       <c r="T3">
-        <v>0.2790838821509909</v>
+        <v>0.02273780052362551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9972557644157989</v>
+        <v>1.014517831660765</v>
       </c>
       <c r="O4">
-        <v>0.7848521014216412</v>
+        <v>0.784852101421451</v>
       </c>
       <c r="P4">
-        <v>0.8693348989649704</v>
+        <v>0.8851581963912879</v>
       </c>
       <c r="Q4">
-        <v>22.69114698980312</v>
+        <v>22.35550878019658</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769007</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>153.54811195993</v>
+        <v>154.1407308433237</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.997255764413587</v>
+        <v>1.014517831657964</v>
       </c>
       <c r="O5">
-        <v>0.7848521014241665</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P5">
-        <v>0.8693348989695092</v>
+        <v>0.8851581963955411</v>
       </c>
       <c r="Q5">
-        <v>22.69114698999878</v>
+        <v>22.3555087803814</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>153.5481119599557</v>
+        <v>154.1407308433132</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.997255764413587</v>
+        <v>1.014517831657964</v>
       </c>
       <c r="O6">
-        <v>0.7848521014241665</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P6">
-        <v>0.8693348989695092</v>
+        <v>0.8851581963955409</v>
       </c>
       <c r="Q6">
-        <v>22.69114698999878</v>
+        <v>22.3555087803814</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>153.5481119599557</v>
+        <v>154.1407308433132</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523818</v>
+        <v>0.8909260930523851</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033978</v>
+        <v>25.18850204033987</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314907</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071882992</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,40 +10564,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248803</v>
       </c>
       <c r="D3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248803</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950652</v>
       </c>
       <c r="G3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950652</v>
       </c>
       <c r="H3">
-        <v>0.02718770036931578</v>
+        <v>5.770443987232553</v>
       </c>
       <c r="I3">
-        <v>52.87164768924221</v>
+        <v>-770.2453632030741</v>
       </c>
       <c r="J3">
-        <v>0.107731905403702</v>
+        <v>0.1077319054461961</v>
       </c>
       <c r="K3">
-        <v>2.308438694626092</v>
+        <v>2.308438694707308</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054083537</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.308438694653053</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020822</v>
+        <v>0.9526279648020823</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -10606,13 +10606,13 @@
         <v>0.9526279648025198</v>
       </c>
       <c r="Q3">
-        <v>-4.075572016387165E-12</v>
+        <v>-3.504180769098238E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999904</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10662,16 +10662,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292915</v>
+        <v>0.9526279648292914</v>
       </c>
       <c r="Q4">
-        <v>1.415035895159276E-09</v>
+        <v>1.415622158187488E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985759</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10721,16 +10721,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382153</v>
+        <v>0.952627964838215</v>
       </c>
       <c r="Q5">
-        <v>1.888077305070501E-09</v>
+        <v>1.888656937477562E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981029</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663872</v>
+        <v>0.9526279647663873</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382152</v>
+        <v>0.952627964838215</v>
       </c>
       <c r="Q6">
-        <v>1.888076790653456E-09</v>
+        <v>1.888660415216949E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981029</v>
       </c>
     </row>
   </sheetData>
